--- a/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>-47,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,67</t>
+          <t>0,0; 27,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,94</t>
+          <t>-23,64; 7,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,38</t>
+          <t>-11,49; 27,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,19</t>
+          <t>-19,1; 10,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 63,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 106,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 174,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 26,33</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,01%</t>
+          <t>-36,13%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,38</t>
+          <t>-4,73; 4,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,83</t>
+          <t>-2,78; 6,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,39</t>
+          <t>-0,23; 9,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,52</t>
+          <t>-7,23; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 74,57</t>
+          <t>-38,68; 63,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 83,11</t>
+          <t>-24,05; 106,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 56,37</t>
+          <t>-3,68; 174,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,0; 64,3</t>
+          <t>-69,18; 26,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,98</t>
+          <t>-5,39; 4,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 7,31</t>
+          <t>-6,87; 4,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 27,25</t>
+          <t>-6,11; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 10,05</t>
+          <t>-4,25; 3,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,92; 94,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,59; 60,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,84; 61,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,58; 141,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-44,01%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,65</t>
+          <t>-4,97; 4,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,97</t>
+          <t>-5,36; 3,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,98</t>
+          <t>-6,5; 4,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,81</t>
+          <t>-6,98; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 94,05</t>
+          <t>-45,93; 74,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 60,81</t>
+          <t>-54,58; 83,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 61,12</t>
+          <t>-46,78; 56,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 141,95</t>
+          <t>-84,0; 64,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,98</t>
+          <t>0,0; 24,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 7,31</t>
+          <t>-22,87; 8,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 27,25</t>
+          <t>-9,64; 25,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 8,2</t>
+          <t>-2,96; 8,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,71</t>
+          <t>-7,47; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 5,83</t>
+          <t>-7,49; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 5,42</t>
+          <t>-5,28; 5,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 175,58</t>
+          <t>-33,4; 221,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 81,47</t>
+          <t>-50,97; 77,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 81,17</t>
+          <t>-53,3; 79,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 213,73</t>
+          <t>-63,31; 188,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,67</t>
+          <t>-5,03; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,94</t>
+          <t>-3,48; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,38</t>
+          <t>-0,06; 9,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,19</t>
+          <t>-6,94; 0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 63,18</t>
+          <t>-42,83; 61,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 106,86</t>
+          <t>-31,41; 101,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 174,06</t>
+          <t>-1,81; 183,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 26,33</t>
+          <t>-70,22; 22,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,65</t>
+          <t>-5,62; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,97</t>
+          <t>-6,32; 4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,98</t>
+          <t>-6,28; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,81</t>
+          <t>-4,13; 3,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 94,05</t>
+          <t>-56,98; 82,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 60,81</t>
+          <t>-47,83; 60,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,84; 61,12</t>
+          <t>-47,05; 66,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 141,95</t>
+          <t>-61,44; 155,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,38</t>
+          <t>-5,1; 4,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,83</t>
+          <t>-5,08; 3,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,39</t>
+          <t>-6,97; 3,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 1,52</t>
+          <t>-6,88; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 74,57</t>
+          <t>-47,11; 72,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 83,11</t>
+          <t>-51,69; 85,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 56,37</t>
+          <t>-49,48; 44,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-84,0; 64,3</t>
+          <t>-82,27; 57,22</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,96</t>
+          <t>-1,94; 2,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,38</t>
+          <t>-2,86; 2,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,39</t>
+          <t>-1,84; 3,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,63</t>
+          <t>-3,54; 0,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 43,16</t>
+          <t>-21,38; 43,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 29,64</t>
+          <t>-26,54; 31,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 40,05</t>
+          <t>-16,86; 43,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 12,83</t>
+          <t>-49,09; 10,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,49</t>
+          <t>0,0; 27,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 8,42</t>
+          <t>-23,93; 8,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 25,64</t>
+          <t>-10,03; 26,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 10,05</t>
+          <t>-22,06; 9,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 8,42</t>
+          <t>-3,2; 8,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 5,86</t>
+          <t>-6,97; 6,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,56</t>
+          <t>-8,63; 5,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,1</t>
+          <t>-4,74; 5,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 221,02</t>
+          <t>-31,65; 214,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,97; 77,91</t>
+          <t>-49,74; 87,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 79,16</t>
+          <t>-58,77; 70,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 188,04</t>
+          <t>-63,11; 223,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,36</t>
+          <t>-4,99; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,91</t>
+          <t>-3,0; 7,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 9,24</t>
+          <t>0,16; 8,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,92</t>
+          <t>-6,95; 1,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 61,45</t>
+          <t>-41,61; 59,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 101,51</t>
+          <t>-28,19; 109,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 183,14</t>
+          <t>-1,36; 159,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,22; 22,13</t>
+          <t>-68,83; 23,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,97</t>
+          <t>-5,26; 4,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,65</t>
+          <t>-6,68; 4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 4,86</t>
+          <t>-6,8; 5,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,93</t>
+          <t>-3,87; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,98; 82,12</t>
+          <t>-56,38; 96,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 60,91</t>
+          <t>-48,29; 57,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 66,66</t>
+          <t>-49,49; 69,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 155,24</t>
+          <t>-57,36; 145,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,47</t>
+          <t>-4,92; 5,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,99</t>
+          <t>-5,12; 4,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 3,73</t>
+          <t>-6,61; 4,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,31</t>
+          <t>-6,49; 1,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 72,01</t>
+          <t>-48,04; 87,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 85,73</t>
+          <t>-55,74; 97,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 44,83</t>
+          <t>-47,94; 51,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 57,22</t>
+          <t>-82,26; 51,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,97</t>
+          <t>-1,97; 3,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,6</t>
+          <t>-2,67; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,62</t>
+          <t>-1,99; 3,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,5</t>
+          <t>-3,74; 0,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 43,28</t>
+          <t>-21,34; 43,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 31,46</t>
+          <t>-24,64; 32,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 43,29</t>
+          <t>-17,81; 43,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 10,57</t>
+          <t>-49,97; 15,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2001-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,78</t>
+          <t>-2,05; 8,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 8,04</t>
+          <t>-7,78; 4,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 26,73</t>
+          <t>-6,43; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 9,91</t>
+          <t>-4,26; 5,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,9; 249,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; 68,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,83; 86,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,74; 238,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>-37,87%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 8,58</t>
+          <t>-4,73; 4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,85</t>
+          <t>-2,78; 6,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,5</t>
+          <t>-0,23; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,52</t>
+          <t>-7,67; 0,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 214,68</t>
+          <t>-38,68; 63,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 87,8</t>
+          <t>-24,05; 106,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 70,45</t>
+          <t>-3,68; 174,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,11; 223,21</t>
+          <t>-71,11; 20,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>-7,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>-9,31%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,33</t>
+          <t>-5,39; 4,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,31</t>
+          <t>-6,87; 4,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,67</t>
+          <t>-6,11; 4,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 1,05</t>
+          <t>-4,88; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 59,61</t>
+          <t>-54,92; 94,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 109,63</t>
+          <t>-47,59; 60,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 159,95</t>
+          <t>-45,84; 61,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 23,46</t>
+          <t>-69,73; 115,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,33%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-44,23%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,56</t>
+          <t>-4,97; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,63</t>
+          <t>-5,36; 3,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 5,04</t>
+          <t>-6,5; 4,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,17</t>
+          <t>-6,98; 1,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,38; 96,84</t>
+          <t>-45,93; 74,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 57,12</t>
+          <t>-54,58; 83,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 69,02</t>
+          <t>-46,78; 56,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 145,85</t>
+          <t>-84,45; 65,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-44,01%</t>
+          <t>-27,53%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 5,05</t>
+          <t>-2,07; 2,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 4,36</t>
+          <t>-2,77; 2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 4,19</t>
+          <t>-1,81; 3,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,24</t>
+          <t>-3,78; 0,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 87,69</t>
+          <t>-22,38; 43,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 97,57</t>
+          <t>-25,37; 29,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 51,48</t>
+          <t>-16,83; 40,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 51,24</t>
+          <t>-51,57; 12,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-0,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-24,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 3,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 2,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 3,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 0,61</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; 43,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-24,64; 32,02</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-17,81; 43,39</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,97; 15,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
